--- a/biology/Zoologie/Emydura_subglobosa/Emydura_subglobosa.xlsx
+++ b/biology/Zoologie/Emydura_subglobosa/Emydura_subglobosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emydura subglobosa est une espèce de tortue de la famille des Chelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emydura subglobosa est une espèce de tortue de la famille des Chelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre au Queensland et dans le Territoire du Nord en Australie et en Nouvelle-Guinée en Indonésie et en Papouasie-Nouvelle-Guinée[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre au Queensland et dans le Territoire du Nord en Australie et en Nouvelle-Guinée en Indonésie et en Papouasie-Nouvelle-Guinée :
 Emydura subglobosa subglobosa se rencontre au Queensland en Australie et en Nouvelle-Guinée en Indonésie et en Papouasie-Nouvelle-Guinée ;
 Emydura subglobosa worrelli se rencontre au Queensland et dans le Territoire du Nord en Australie.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (20 mai 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (20 mai 2011) :
 Emydura subglobosa subglobosa (Krefft, 1876)
 Emydura subglobosa worrelli (Wells &amp; Wellington, 1985)</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Krefft, 1876 : Notes on Australian animals in New Guinea with description of a new freshwater tortoise belonging to the genus Euchelymys. Annali del Museo Civico di Storia Naturale de Genova, ser. 1, vol. 8, p. 390-394 (texte intégral).
 Boulenger , 1888 : On the chelydoid chelonians of New Guinea. Annali del Museo civico di storia naturale di Genova, ser. 2A, vol. 6, p. 449-452 (texte intégral).
